--- a/Client/ExcelConfig/Excel/LevelupMJump.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMJump.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,14 +77,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,154 +533,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1136,7 +1129,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="1">
         <v>700</v>
@@ -1157,18 +1150,18 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>700</v>
       </c>
       <c r="C5" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
@@ -1188,10 +1181,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -1214,7 +1207,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>750</v>
@@ -1223,16 +1216,16 @@
         <v>150</v>
       </c>
       <c r="D7" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E7" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>824</v>
       </c>
       <c r="G7" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1240,13 +1233,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>750</v>
       </c>
       <c r="C8" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
         <v>700</v>
@@ -1266,10 +1259,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="C9" s="1">
         <v>180</v>
@@ -1292,7 +1285,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>800</v>
@@ -1301,16 +1294,16 @@
         <v>180</v>
       </c>
       <c r="D10" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E10" s="1">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1">
         <v>824</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1318,13 +1311,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>800</v>
       </c>
       <c r="C11" s="1">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1">
         <v>800</v>
@@ -1344,10 +1337,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1">
         <v>210</v>
@@ -1370,7 +1363,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>900</v>
@@ -1379,16 +1372,16 @@
         <v>210</v>
       </c>
       <c r="D13" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F13" s="1">
         <v>824</v>
       </c>
       <c r="G13" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1396,13 +1389,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>900</v>
       </c>
       <c r="C14" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1">
         <v>900</v>
@@ -1417,6 +1410,32 @@
         <v>45</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>900</v>
+      </c>
+      <c r="C15" s="1">
+        <v>240</v>
+      </c>
+      <c r="D15" s="1">
+        <v>900</v>
+      </c>
+      <c r="E15" s="1">
+        <v>240</v>
+      </c>
+      <c r="F15" s="1">
+        <v>824</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
